--- a/Saisonkalender appetite.xlsx
+++ b/Saisonkalender appetite.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miaziaschuler/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1096F5-7870-004A-865A-B4D7B143D02D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1096F5-7870-004A-865A-B4D7B143D02D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="1860" windowWidth="28800" windowHeight="16500" xr2:uid="{B5AB7093-6919-F846-8E37-D0F02ED9D675}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Germany '!$A$1:$M$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -712,13 +711,13 @@
   <dimension ref="A1:M96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.71484375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
